--- a/ExcelFiles/TestSuiteList.xlsx
+++ b/ExcelFiles/TestSuiteList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="24">
   <si>
     <t>SuiteName</t>
   </si>
